--- a/Equipo 06/Documentacion/Proyecto/Mitigacion.xlsx
+++ b/Equipo 06/Documentacion/Proyecto/Mitigacion.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26522"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="11_F3DD2712D4CDC7E6A535AFB3A43FC3B311E94D42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A3394B8-1088-48AF-9659-B11F5682F978}"/>
+  <xr:revisionPtr revIDLastSave="808" documentId="11_F3DD2712D4CDC7E6A535AFB3A43FC3B311E94D42" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9FF1040-6B47-4661-AB79-6F3370915239}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mitigaciones" sheetId="1" r:id="rId1"/>
-    <sheet name="Riesgos" sheetId="2" r:id="rId2"/>
+    <sheet name="TT1 - Mitigaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="TT2 - Mitigaciones" sheetId="3" r:id="rId2"/>
+    <sheet name="Riesgos" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="215">
   <si>
     <t>ID Riesgo</t>
   </si>
@@ -393,6 +394,174 @@
     <t>Se empezo ah hacer las verciones en Teams para facilitar el trabajo en equipo y mantener los cambios actualizados</t>
   </si>
   <si>
+    <t>Fecha de mitigacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perdida de modelado 3D </t>
+  </si>
+  <si>
+    <t>MAGG</t>
+  </si>
+  <si>
+    <t>La memoria donde se encontraban los modelos se dallo y no se tenia un respaldo de los moldedos trabajados</t>
+  </si>
+  <si>
+    <t>Se trabajaron mas horas en ese tiempo para poder reponer los modelos que se habia perdido</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Entre las observaciones realizadas en la presentacion de TT1 se menciono realizar correcciones en los requerimientos, esto a que estaban mal algunos.</t>
+  </si>
+  <si>
+    <t>Se hicieron juntas con el director para ver los cambios que se estarian realizando en los requerimientos, se hablo con el director de materia tambien para verificar que ya estuvieran bien.</t>
+  </si>
+  <si>
+    <t>EAM</t>
+  </si>
+  <si>
+    <t>Por actividades, o los dias festivos las juntas no se realizaban y se posponian.</t>
+  </si>
+  <si>
+    <t>Se posponia la junta a otro dia que el docente pudiera</t>
+  </si>
+  <si>
+    <t>El director del equipo se ocupo a la hora que se habia acordado para la junta</t>
+  </si>
+  <si>
+    <t>Se movio la junta para el primer dia de la siguiente semana.</t>
+  </si>
+  <si>
+    <t>Falta de conocimiento</t>
+  </si>
+  <si>
+    <t>Entre las observaciones realizadas se encontraron errores en el diagrama de clases</t>
+  </si>
+  <si>
+    <t>Se trabajo con el director del proyecto para realizar las correcciones y si la programacion se modificaba se modificaban los diagramas. Se tuvieron que cambiar los nombres planteados</t>
+  </si>
+  <si>
+    <t>Desconocimiento al utilizar plastic para realizar las verciones en Unity</t>
+  </si>
+  <si>
+    <t>Se investigo sobre como se trabajaban la subida y actualizacion de los canvios y como funcionaba con Unity</t>
+  </si>
+  <si>
+    <t>APLC</t>
+  </si>
+  <si>
+    <t>El uso del NavMesh 2D en Unity</t>
+  </si>
+  <si>
+    <t>Se estuvo investigando sobre como utilizar la paqueteria del NavMesh2D</t>
+  </si>
+  <si>
+    <t>Como realizar el texturizado o corregir el texturizado desde Unity cuando se importaba mas la textura</t>
+  </si>
+  <si>
+    <t>Se pregunto al director del proyecto sobre este tema para poder corregir las texturas de algunos edificios que se importaban mal y actualizar la textura dentro de Unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No saber como funcionan las funciones asincronas </t>
+  </si>
+  <si>
+    <t>Se investigo y pidio ayuda al docente de materia sobre como funcionaban para poder trabajar con ellas en el codigo, dado que estas funciones son las que extraian la informacion de la base de datos</t>
+  </si>
+  <si>
+    <t>Desconocimiento sobre como vincular Firebase con Unity</t>
+  </si>
+  <si>
+    <t>Se estuvo investigando sobre el tema y foros sobre los problemas que surgian para poder lograr la vinculacion.</t>
+  </si>
+  <si>
+    <t>Lectura de archivos Json</t>
+  </si>
+  <si>
+    <t>Se estuvo investigando sobre como realizar las lecturas en Json</t>
+  </si>
+  <si>
+    <t>Incompatibilidad entra las versiones de Unity</t>
+  </si>
+  <si>
+    <t>Problemas para lograr la incompatibilidad de Unity con los programas de Firebase</t>
+  </si>
+  <si>
+    <t>Se investigo y al detectar que era por los SDK de firebase se estuvieron actualizando para evitar los problemas de compatibilidad</t>
+  </si>
+  <si>
+    <t>Cuando se estaban realizando prubas se encontraban varios detalles de programacion o en el modelo por lo que se regreso a la fase anteriores para ir corrigiendo o mejorando los detalles que se encontraban.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se estuvieron trabajando pruebas y programacion al mismo tiempo, dado que por cada problema que salia en pruebas se regresaba a corregir el codigo o modelo, dependiendo del error encontrado. </t>
+  </si>
+  <si>
+    <t>Se encontraban o se sugerian mejorar ciertas partes de la programacion, por lo que se regresaba a corregir la el codigo o se modificaba.</t>
+  </si>
+  <si>
+    <t>En algunas juntas con equipo o al realizar pruebas hubo sugerencias para cambiar el codigo y mejorarlo por lo que se trabajaba mas tiempo o se regresaba a una fase anterior para poder solucionarlo</t>
+  </si>
+  <si>
+    <t>Las observaciones de TT1, era corregir aspectos de las faces enteriores (Analisis y requerimientos, diseño)</t>
+  </si>
+  <si>
+    <t>En la primera semana y unos dias antes de entrar se estuvieron trabajando estos aspectos comentados en la presentacion para eivtar perder dias en las correcciones de estos puntos</t>
+  </si>
+  <si>
+    <t>Por desconocimiento en Firebase, la fase de programacion duro mas de lo previsto dado que no se lograba hacer la conexion ni la construccion para móvil.</t>
+  </si>
+  <si>
+    <t>Se dieron mas dias y se trabajaron dias vacacionales o de fines de semana para poder solucionar el problema</t>
+  </si>
+  <si>
+    <t>Indicar mal las ubicaciones de las áreas y docentes</t>
+  </si>
+  <si>
+    <t>Al inicio se pusieron los puntos en base a los planos que se nos fueron proporcionados, pero al estar investigando algunas zonas ya habian sido modificadas</t>
+  </si>
+  <si>
+    <t>Se corrigieron los modelos y puntos</t>
+  </si>
+  <si>
+    <t>Registrar mal los identificadores de las diferentes áreas en la base de datos.</t>
+  </si>
+  <si>
+    <t>Algunos de los puntos colocados al inicio se modificaron de lugar</t>
+  </si>
+  <si>
+    <t>Se utilizo el apartado administrador para poder poner y modificar la informacion de los puntos ya colocados de manera mas facil y rapido</t>
+  </si>
+  <si>
+    <t>A causa de los atrazos de una de las fases, hubo retrazos para poder seguir el cronograma acorde a lo que se esperaba</t>
+  </si>
+  <si>
+    <t>Se empezo a trabajar mas horas y dias de fines de semana o vacacionales para poder ponerse al corriente con el cronograma</t>
+  </si>
+  <si>
+    <t>Se tenian varios documentos de Blender por lo que a veces se exportaba el modelo equivocado al momento de exportarse en Unity</t>
+  </si>
+  <si>
+    <t>Se borraron las copias y se guardo un respaldo del archivo para solo estar trabajando con uno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tener el equipo necesario para trabajar </t>
+  </si>
+  <si>
+    <t>Uno de los integrantes no contaba con algun equipo apropiado para poder trabajar en las horas de clase, motivo por el que solo podia trabajar en su casa pero perdiendo las horas que se podia avanzar en la escuela</t>
+  </si>
+  <si>
+    <t>Se pidio un dispositivo prestado para poder trabajar en la escuela</t>
+  </si>
+  <si>
+    <t>Problemas actualizando el repositorio</t>
+  </si>
+  <si>
+    <t>Cuando no se actualizaba al inicio del trabajo o no se le informaba al compañero sobre la nueva actualizacion se sobreescribian los cambios arriba de otros avances por lo que se solian perder los avances hechos</t>
+  </si>
+  <si>
+    <t>Se empezo a trabajar en archivos con elementos separados y diferentes escenas en lugar de usar PlasticSCM para evitar que los datos se siguieran perdiendo. Cuando se tenia el trabajo se volvio a unir el proyecto ahora en un solo documentos.</t>
+  </si>
+  <si>
     <t>Cambio de ubicaciones de los docentes o áreas. </t>
   </si>
   <si>
@@ -502,13 +671,37 @@
   </si>
   <si>
     <t>Distracciones (juegos, series, etc.) </t>
+  </si>
+  <si>
+    <t>R-038 </t>
+  </si>
+  <si>
+    <t>Duplicidad de archivos </t>
+  </si>
+  <si>
+    <t>R-039 </t>
+  </si>
+  <si>
+    <t>Olvidar actualizar el repositorio </t>
+  </si>
+  <si>
+    <t>R-040 </t>
+  </si>
+  <si>
+    <t>No tener equipo necesario para trabajar </t>
+  </si>
+  <si>
+    <t>R-041</t>
+  </si>
+  <si>
+    <t>Implementacion de base de datos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,8 +735,24 @@
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +765,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -815,11 +1030,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -905,12 +1339,159 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -937,9 +1518,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1263,10 +1841,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="45.75">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5"/>
@@ -1281,8 +1859,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="45.75">
-      <c r="A3" s="32"/>
-      <c r="B3" s="34"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1321,7 +1899,7 @@
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="7" t="s">
         <v>21</v>
       </c>
@@ -1343,10 +1921,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.75">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="89" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="9"/>
@@ -1361,8 +1939,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="9"/>
       <c r="D8" s="5" t="s">
         <v>31</v>
@@ -1373,8 +1951,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="45.75">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="9"/>
       <c r="D9" s="5" t="s">
         <v>33</v>
@@ -1387,10 +1965,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45.75">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="86" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="9"/>
@@ -1403,8 +1981,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="60.75">
-      <c r="A11" s="32"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="9"/>
       <c r="D11" s="5" t="s">
         <v>40</v>
@@ -1415,10 +1993,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="9"/>
@@ -1431,8 +2009,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="60.75">
-      <c r="A13" s="32"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="9"/>
       <c r="D13" s="5" t="s">
         <v>46</v>
@@ -1525,10 +2103,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="75.75">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="89" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="9"/>
@@ -1543,8 +2121,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="9"/>
       <c r="D20" s="5" t="s">
         <v>72</v>
@@ -1609,10 +2187,10 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="89" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="12"/>
@@ -1627,8 +2205,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="168">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="12"/>
       <c r="D25" s="30" t="s">
         <v>92</v>
@@ -1702,7 +2280,7 @@
         <v>108</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="7" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1765,11 +2343,717 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEDAAAE-5928-4586-94A2-0224834E0D61}">
+  <dimension ref="A1:G54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="3" width="36" style="57" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:7" ht="45.75">
+      <c r="A3" s="58">
+        <v>4</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="62">
+        <v>44966</v>
+      </c>
+      <c r="F3" s="63">
+        <v>44969</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75.75">
+      <c r="A4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="51">
+        <v>44902</v>
+      </c>
+      <c r="F4" s="51">
+        <v>44967</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="82">
+        <v>10</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="A6" s="84"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="51">
+        <v>44959</v>
+      </c>
+      <c r="F6" s="51">
+        <v>44964</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75.75">
+      <c r="A7" s="82">
+        <v>13</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="78">
+        <v>44901</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45.75">
+      <c r="A8" s="83"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="78">
+        <v>44955</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="83"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="60.75">
+      <c r="A10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75.75">
+      <c r="A11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45.75">
+      <c r="A12" s="83"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="78"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="84"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="77" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="78">
+        <v>44970</v>
+      </c>
+      <c r="F13" s="51">
+        <v>44970</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45.75">
+      <c r="A14" s="31">
+        <v>15</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="78"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90.75">
+      <c r="A15" s="82">
+        <v>17</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="78"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="75.75">
+      <c r="A16" s="83"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75.75">
+      <c r="A17" s="84"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="51">
+        <v>44901</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60.75">
+      <c r="A18" s="31">
+        <v>18</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="60.75">
+      <c r="A19" s="31">
+        <v>21</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="51"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60.75">
+      <c r="A20" s="31">
+        <v>27</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="51"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45.75">
+      <c r="A21" s="31">
+        <v>30</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60.75">
+      <c r="A22" s="31">
+        <v>38</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" s="51"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="90.75">
+      <c r="A23" s="4">
+        <v>40</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="51">
+        <v>44957</v>
+      </c>
+      <c r="F23" s="51">
+        <v>44964</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90.75">
+      <c r="A24" s="15">
+        <v>41</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="31"/>
+      <c r="B25" s="71"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="50"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="4"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="31"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="50"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="39"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="39"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4"/>
+      <c r="B35" s="72"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="39"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="39"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="39"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="39"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="39"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" s="4"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="39"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="39"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="39"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="23"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="13"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="39"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="13"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="15"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="74"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="75"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="75"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="75"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="75"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -1778,458 +3062,496 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="54" customHeight="1">
-      <c r="A1" s="39">
+      <c r="A1" s="92">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>114</v>
+      <c r="B1" s="92" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="37">
+      <c r="A3" s="90">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>115</v>
+      <c r="B3" s="90" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
     </row>
     <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="37">
+      <c r="A5" s="90">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>116</v>
+      <c r="B5" s="90" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="91"/>
     </row>
     <row r="7" spans="1:2" ht="54" customHeight="1">
-      <c r="A7" s="37">
+      <c r="A7" s="90">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
-        <v>117</v>
+      <c r="B7" s="90" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
     </row>
     <row r="9" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A9" s="37">
+      <c r="A9" s="90">
         <v>5</v>
       </c>
-      <c r="B9" s="37" t="s">
-        <v>118</v>
+      <c r="B9" s="90" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
     </row>
     <row r="11" spans="1:2" ht="67.900000000000006" customHeight="1">
-      <c r="A11" s="37">
+      <c r="A11" s="90">
         <v>6</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>119</v>
+      <c r="B11" s="90" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
     </row>
     <row r="13" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A13" s="37">
+      <c r="A13" s="90">
         <v>7</v>
       </c>
-      <c r="B13" s="37" t="s">
-        <v>120</v>
+      <c r="B13" s="90" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="91"/>
+      <c r="B14" s="91"/>
     </row>
     <row r="15" spans="1:2" ht="54" customHeight="1">
-      <c r="A15" s="37">
+      <c r="A15" s="90">
         <v>8</v>
       </c>
-      <c r="B15" s="37" t="s">
-        <v>121</v>
+      <c r="B15" s="90" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A17" s="37">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+    </row>
+    <row r="17" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A17" s="90">
         <v>9</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-    </row>
-    <row r="19" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A19" s="37">
+      <c r="B17" s="90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="91"/>
+      <c r="B18" s="91"/>
+    </row>
+    <row r="19" spans="1:4" ht="26.45" customHeight="1">
+      <c r="A19" s="90">
         <v>10</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-    </row>
-    <row r="21" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A21" s="37">
+      <c r="B19" s="90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+    </row>
+    <row r="21" spans="1:4" ht="26.45" customHeight="1">
+      <c r="A21" s="90">
         <v>11</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A23" s="37">
+      <c r="B21" s="90" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="91"/>
+    </row>
+    <row r="23" spans="1:4" ht="26.45" customHeight="1">
+      <c r="A23" s="90">
         <v>12</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A25" s="37">
+      <c r="B23" s="90" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+    </row>
+    <row r="25" spans="1:4" ht="26.45" customHeight="1">
+      <c r="A25" s="90">
         <v>13</v>
       </c>
-      <c r="B25" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A27" s="37">
+      <c r="B25" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="91"/>
+      <c r="B26" s="91"/>
+    </row>
+    <row r="27" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A27" s="90">
         <v>14</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-    </row>
-    <row r="29" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A29" s="37">
+      <c r="B27" s="90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="91"/>
+      <c r="B28" s="91"/>
+    </row>
+    <row r="29" spans="1:4" ht="40.15" customHeight="1">
+      <c r="A29" s="90">
         <v>15</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-    </row>
-    <row r="31" spans="1:2" ht="54" customHeight="1">
-      <c r="A31" s="37">
+      <c r="B29" s="90" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" s="91"/>
+      <c r="B30" s="91"/>
+    </row>
+    <row r="31" spans="1:4" ht="54" customHeight="1">
+      <c r="A31" s="90">
         <v>16</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="B31" s="90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15">
+      <c r="A32" s="91"/>
+      <c r="B32" s="91"/>
     </row>
     <row r="33" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A33" s="37">
+      <c r="A33" s="90">
         <v>17</v>
       </c>
-      <c r="B33" s="37" t="s">
-        <v>130</v>
+      <c r="B33" s="90" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="91"/>
+      <c r="B34" s="91"/>
     </row>
     <row r="35" spans="1:2" ht="54" customHeight="1">
-      <c r="A35" s="37">
+      <c r="A35" s="90">
         <v>18</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>131</v>
+      <c r="B35" s="90" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="91"/>
     </row>
     <row r="37" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A37" s="37">
+      <c r="A37" s="90">
         <v>19</v>
       </c>
-      <c r="B37" s="37" t="s">
-        <v>132</v>
+      <c r="B37" s="90" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="91"/>
     </row>
     <row r="39" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A39" s="37">
+      <c r="A39" s="90">
         <v>20</v>
       </c>
-      <c r="B39" s="37" t="s">
-        <v>133</v>
+      <c r="B39" s="90" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="91"/>
     </row>
     <row r="41" spans="1:2" ht="54" customHeight="1">
-      <c r="A41" s="37">
+      <c r="A41" s="90">
         <v>21</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>134</v>
+      <c r="B41" s="90" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="91"/>
     </row>
     <row r="43" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A43" s="37">
+      <c r="A43" s="90">
         <v>22</v>
       </c>
-      <c r="B43" s="37" t="s">
-        <v>135</v>
+      <c r="B43" s="90" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="91"/>
     </row>
     <row r="45" spans="1:2" ht="67.900000000000006" customHeight="1">
-      <c r="A45" s="37">
+      <c r="A45" s="90">
         <v>23</v>
       </c>
-      <c r="B45" s="37" t="s">
-        <v>136</v>
+      <c r="B45" s="90" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="91"/>
     </row>
     <row r="47" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A47" s="37">
+      <c r="A47" s="90">
         <v>24</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>137</v>
+      <c r="B47" s="90" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="91"/>
     </row>
     <row r="49" spans="1:2" ht="15">
-      <c r="A49" s="37">
+      <c r="A49" s="90">
         <v>25</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>138</v>
+      <c r="B49" s="90" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="91"/>
     </row>
     <row r="51" spans="1:2" ht="54" customHeight="1">
-      <c r="A51" s="37">
+      <c r="A51" s="90">
         <v>26</v>
       </c>
-      <c r="B51" s="37" t="s">
-        <v>139</v>
+      <c r="B51" s="90" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
     </row>
     <row r="53" spans="1:2" ht="66.599999999999994" customHeight="1">
-      <c r="A53" s="37">
+      <c r="A53" s="90">
         <v>27</v>
       </c>
-      <c r="B53" s="37" t="s">
-        <v>140</v>
+      <c r="B53" s="90" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="93"/>
+      <c r="B54" s="93"/>
     </row>
     <row r="55" spans="1:2" ht="15">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="93"/>
+      <c r="B55" s="93"/>
     </row>
     <row r="56" spans="1:2" ht="15">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="91"/>
+      <c r="B56" s="91"/>
     </row>
     <row r="57" spans="1:2" ht="15">
-      <c r="A57" s="37">
+      <c r="A57" s="90">
         <v>28</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>141</v>
+      <c r="B57" s="90" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="91"/>
     </row>
     <row r="59" spans="1:2" ht="54" customHeight="1">
-      <c r="A59" s="37">
+      <c r="A59" s="90">
         <v>29</v>
       </c>
-      <c r="B59" s="37" t="s">
-        <v>142</v>
+      <c r="B59" s="90" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="91"/>
     </row>
     <row r="61" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A61" s="37">
+      <c r="A61" s="90">
         <v>30</v>
       </c>
-      <c r="B61" s="37" t="s">
-        <v>143</v>
+      <c r="B61" s="90" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="91"/>
     </row>
     <row r="63" spans="1:2" ht="54" customHeight="1">
-      <c r="A63" s="37">
+      <c r="A63" s="90">
         <v>31</v>
       </c>
-      <c r="B63" s="37" t="s">
-        <v>144</v>
+      <c r="B63" s="90" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="91"/>
     </row>
     <row r="65" spans="1:2" ht="40.15" customHeight="1">
-      <c r="A65" s="37">
+      <c r="A65" s="90">
         <v>32</v>
       </c>
-      <c r="B65" s="37" t="s">
-        <v>145</v>
+      <c r="B65" s="90" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="91"/>
+      <c r="B66" s="91"/>
     </row>
     <row r="67" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A67" s="37">
+      <c r="A67" s="90">
         <v>33</v>
       </c>
-      <c r="B67" s="37" t="s">
-        <v>146</v>
+      <c r="B67" s="90" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="91"/>
     </row>
     <row r="69" spans="1:2" ht="15">
-      <c r="A69" s="37">
+      <c r="A69" s="90">
         <v>34</v>
       </c>
-      <c r="B69" s="37" t="s">
-        <v>147</v>
+      <c r="B69" s="90" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="91"/>
     </row>
     <row r="71" spans="1:2" ht="15">
-      <c r="A71" s="37">
+      <c r="A71" s="90">
         <v>35</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>148</v>
+      <c r="B71" s="90" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="91"/>
     </row>
     <row r="73" spans="1:2" ht="26.45" customHeight="1">
-      <c r="A73" s="37">
+      <c r="A73" s="90">
         <v>36</v>
       </c>
-      <c r="B73" s="37" t="s">
-        <v>149</v>
+      <c r="B73" s="90" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="91"/>
     </row>
     <row r="75" spans="1:2" ht="27" customHeight="1">
-      <c r="A75" s="37">
+      <c r="A75" s="90">
         <v>37</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>150</v>
+      <c r="B75" s="90" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15">
-      <c r="A76" s="38"/>
-      <c r="B76" s="41"/>
-    </row>
-    <row r="77" spans="1:2" ht="15"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="94"/>
+    </row>
+    <row r="77" spans="1:2" ht="15">
+      <c r="A77" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="65" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15">
+      <c r="A78" s="66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15">
+      <c r="A79" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B79" s="69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15">
+      <c r="A80" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="74">
     <mergeCell ref="A73:A74"/>
@@ -2313,10 +3635,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008706BB750A01C145B89BA8FC5241BB56" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b7ad14c26914a894e419cea714234ed4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="31bf29d4-d40e-4384-9f8c-91b7340b5deb" xmlns:ns3="28ed3e19-89d7-49f2-a8a6-ee97cddbfe6d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="408c5999bb303d4101ff849264dc2619" ns2:_="" ns3:_="">
-    <xsd:import namespace="31bf29d4-d40e-4384-9f8c-91b7340b5deb"/>
-    <xsd:import namespace="28ed3e19-89d7-49f2-a8a6-ee97cddbfe6d"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A5F2360D338CD44A1F157DB2B4082B5" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f43771811693c9e3758bf5970b3aae20">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cdbad032-909f-4c71-89f6-83336807a985" xmlns:ns3="b7410b2f-1613-43af-ada5-42bc22b852fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d0c018df5268cb73acc638a2f1f2f683" ns2:_="" ns3:_="">
+    <xsd:import namespace="cdbad032-909f-4c71-89f6-83336807a985"/>
+    <xsd:import namespace="b7410b2f-1613-43af-ada5-42bc22b852fd"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -2325,12 +3647,12 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2338,7 +3660,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="31bf29d4-d40e-4384-9f8c-91b7340b5deb" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cdbad032-909f-4c71-89f6-83336807a985" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2351,40 +3673,40 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2b61bc0c-9156-412f-b605-57ff87b11ec1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="2b61bc0c-9156-412f-b605-57ff87b11ec1" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="28ed3e19-89d7-49f2-a8a6-ee97cddbfe6d" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b7410b2f-1613-43af-ada5-42bc22b852fd" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="12" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{4e98a5af-f627-419a-84ae-53196ef689da}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="28ed3e19-89d7-49f2-a8a6-ee97cddbfe6d">
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c3b7af98-d20b-41f5-91b6-27450289c688}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="b7410b2f-1613-43af-ada5-42bc22b852fd">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -2498,10 +3820,10 @@
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="31bf29d4-d40e-4384-9f8c-91b7340b5deb">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cdbad032-909f-4c71-89f6-83336807a985">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="28ed3e19-89d7-49f2-a8a6-ee97cddbfe6d" xsi:nil="true"/>
+    <TaxCatchAll xmlns="b7410b2f-1613-43af-ada5-42bc22b852fd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
@@ -2516,7 +3838,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8A4DA92-5456-4E38-BBA7-B2A59264D0EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A0CCCCA-28AF-4AC3-95DD-55E4E7092EE1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
